--- a/public/data/NAMA.xlsx
+++ b/public/data/NAMA.xlsx
@@ -1,46 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>کد</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>کد نما</t>
   </si>
   <si>
     <t>تعداد</t>
   </si>
   <si>
-    <t>نما</t>
+    <t>نوع</t>
   </si>
   <si>
     <t>بایر</t>
   </si>
   <si>
-    <t>سنگی</t>
-  </si>
-  <si>
-    <t>اجری</t>
+    <t>سنگ</t>
+  </si>
+  <si>
+    <t>آجر</t>
   </si>
   <si>
     <t>ترکیبی</t>
   </si>
   <si>
-    <t>کامبوزیت</t>
-  </si>
-  <si>
-    <t>سیمانی</t>
+    <t>کامپوزیت</t>
+  </si>
+  <si>
+    <t>سیمان</t>
   </si>
   <si>
     <t>بدون نما</t>
@@ -52,28 +53,23 @@
     <t>مغازه</t>
   </si>
   <si>
-    <t>شیشه ای</t>
+    <t>شیشه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,47 +77,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -200,6 +177,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,21 +388,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -432,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -443,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -454,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -465,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -476,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -487,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -498,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -509,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -520,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -531,13 +515,24 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/public/data/NAMA.xlsx
+++ b/public/data/NAMA.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="nama" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>کد نما</t>
+    <t>کد</t>
   </si>
   <si>
     <t>تعداد</t>
   </si>
   <si>
-    <t>نوع</t>
+    <t>نما</t>
   </si>
   <si>
     <t>بایر</t>
@@ -47,63 +59,906 @@
     <t>بدون نما</t>
   </si>
   <si>
-    <t>درحال ساخت</t>
+    <t>در حال ساخت</t>
   </si>
   <si>
     <t>مغازه</t>
-  </si>
-  <si>
-    <t>شیشه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -113,39 +968,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,181 +1079,149 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -416,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -427,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>219</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -438,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -449,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -460,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -471,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -482,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -493,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -504,35 +1327,14 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>